--- a/data/trans_orig/P02F-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P02F-Provincia-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E900EB8B-8512-4683-A605-E6CD60DC88CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{66AD7D0C-2388-4C89-887E-260AAAFAD6CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{951CD8BE-128E-4CFD-A6BB-3BB8E8B4021E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C4589CFB-856A-440D-BE5A-1E38C88D3717}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="352">
   <si>
     <t>Población que se encarga del cuidado de alguna persona fuera del hogar sin percibir remuneración por ello en 2012 (Tasa respuesta: 99,63%)</t>
   </si>
@@ -103,940 +103,952 @@
     <t>98,01%</t>
   </si>
   <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
   </si>
   <si>
     <t>95,6%</t>
   </si>
   <si>
-    <t>93,26%</t>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>98,67%</t>
   </si>
   <si>
     <t>97,19%</t>
   </si>
   <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
+    <t>99,45%</t>
   </si>
   <si>
     <t>97,73%</t>
   </si>
   <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
   </si>
   <si>
     <t>2,81%</t>
   </si>
   <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
     <t>2,27%</t>
   </si>
   <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que se encarga del cuidado de alguna persona fuera del hogar sin percibir remuneración por ello en 2016 (Tasa respuesta: 99,47%)</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
   </si>
   <si>
     <t>93,39%</t>
   </si>
   <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
   </si>
   <si>
     <t>6,61%</t>
   </si>
   <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>86,24%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
   </si>
   <si>
     <t>91,11%</t>
   </si>
   <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
   </si>
   <si>
     <t>8,89%</t>
   </si>
   <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>Población que se encarga del cuidado de alguna persona fuera del hogar sin percibir remuneración por ello en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
   </si>
   <si>
     <t>99,61%</t>
   </si>
   <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
+    <t>99,75%</t>
   </si>
   <si>
     <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que se encarga del cuidado de alguna persona fuera del hogar sin percibir remuneración por ello en 2015 (Tasa respuesta: 99,47%)</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>88,26%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>Población que se encarga del cuidado de alguna persona fuera del hogar sin percibir remuneración por ello en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
   </si>
   <si>
     <t>99,58%</t>
@@ -1493,7 +1505,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C60AC8F-162A-4E6C-A44E-55632817F640}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35B1BAEA-8560-41E2-B308-E1198EF7D122}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2074,10 +2086,10 @@
         <v>46</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M13" s="7">
         <v>623</v>
@@ -2086,13 +2098,13 @@
         <v>651890</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2125,10 +2137,10 @@
         <v>54</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="M14" s="7">
         <v>9</v>
@@ -2137,13 +2149,13 @@
         <v>9144</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>56</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2199,7 +2211,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2247,7 +2259,7 @@
         <v>16</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2262,13 +2274,13 @@
         <v>652632</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H17" s="7">
         <v>593</v>
@@ -2277,13 +2289,13 @@
         <v>639177</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M17" s="7">
         <v>1204</v>
@@ -2292,13 +2304,13 @@
         <v>1291809</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2313,13 +2325,13 @@
         <v>12828</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H18" s="7">
         <v>34</v>
@@ -2328,13 +2340,13 @@
         <v>37019</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M18" s="7">
         <v>46</v>
@@ -2343,13 +2355,13 @@
         <v>49847</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2405,7 +2417,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2423,7 +2435,7 @@
         <v>16</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2438,7 +2450,7 @@
         <v>16</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2453,7 +2465,7 @@
         <v>16</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2468,13 +2480,13 @@
         <v>209455</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H21" s="7">
         <v>205</v>
@@ -2483,13 +2495,13 @@
         <v>212495</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M21" s="7">
         <v>398</v>
@@ -2498,13 +2510,13 @@
         <v>421950</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2519,13 +2531,13 @@
         <v>3163</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H22" s="7">
         <v>7</v>
@@ -2534,13 +2546,13 @@
         <v>7096</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="M22" s="7">
         <v>10</v>
@@ -2549,13 +2561,13 @@
         <v>10259</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2611,7 +2623,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2629,7 +2641,7 @@
         <v>16</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -2644,7 +2656,7 @@
         <v>16</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -2659,7 +2671,7 @@
         <v>16</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2674,13 +2686,13 @@
         <v>272129</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H25" s="7">
         <v>254</v>
@@ -2689,13 +2701,13 @@
         <v>264621</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>106</v>
+        <v>26</v>
       </c>
       <c r="M25" s="7">
         <v>513</v>
@@ -2704,13 +2716,13 @@
         <v>536751</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2725,13 +2737,13 @@
         <v>943</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H26" s="7">
         <v>15</v>
@@ -2740,10 +2752,10 @@
         <v>15410</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>113</v>
+        <v>35</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>114</v>
@@ -2865,7 +2877,7 @@
         <v>16</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2895,10 +2907,10 @@
         <v>676046</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>28</v>
+        <v>122</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>119</v>
@@ -2910,7 +2922,7 @@
         <v>1329295</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>124</v>
@@ -2946,13 +2958,13 @@
         <v>15714</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>36</v>
+        <v>129</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>126</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M30" s="7">
         <v>22</v>
@@ -2961,7 +2973,7 @@
         <v>24514</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>131</v>
@@ -3089,10 +3101,10 @@
         <v>137</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H33" s="7">
         <v>734</v>
@@ -3101,13 +3113,13 @@
         <v>796863</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M33" s="7">
         <v>1438</v>
@@ -3116,13 +3128,13 @@
         <v>1562653</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3143,7 +3155,7 @@
         <v>146</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>116</v>
+        <v>147</v>
       </c>
       <c r="H34" s="7">
         <v>19</v>
@@ -3152,13 +3164,13 @@
         <v>20915</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M34" s="7">
         <v>26</v>
@@ -3167,10 +3179,10 @@
         <v>27990</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>151</v>
+        <v>97</v>
       </c>
       <c r="Q34" s="7" t="s">
         <v>152</v>
@@ -3295,10 +3307,10 @@
         <v>155</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>142</v>
+        <v>46</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>156</v>
+        <v>63</v>
       </c>
       <c r="H37" s="7">
         <v>3171</v>
@@ -3307,13 +3319,13 @@
         <v>3420740</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="M37" s="7">
         <v>6323</v>
@@ -3322,13 +3334,13 @@
         <v>6787601</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3343,13 +3355,13 @@
         <v>45857</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>164</v>
+        <v>71</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>150</v>
+        <v>54</v>
       </c>
       <c r="H38" s="7">
         <v>117</v>
@@ -3358,13 +3370,13 @@
         <v>125222</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M38" s="7">
         <v>160</v>
@@ -3373,13 +3385,13 @@
         <v>171079</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3435,7 +3447,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -3459,7 +3471,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{742AD8E7-1F37-409D-9050-C55B86BC9E34}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8F140B7-DE4F-4F9A-A295-C3DBFC23B03C}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3476,7 +3488,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3589,7 +3601,7 @@
         <v>16</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3604,7 +3616,7 @@
         <v>16</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3619,7 +3631,7 @@
         <v>16</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3634,13 +3646,13 @@
         <v>281705</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="H5" s="7">
         <v>250</v>
@@ -3649,13 +3661,13 @@
         <v>260680</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="M5" s="7">
         <v>505</v>
@@ -3664,13 +3676,13 @@
         <v>542385</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3685,13 +3697,13 @@
         <v>11073</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="H6" s="7">
         <v>26</v>
@@ -3700,13 +3712,13 @@
         <v>26552</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="M6" s="7">
         <v>36</v>
@@ -3715,10 +3727,10 @@
         <v>37625</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>190</v>
@@ -3846,7 +3858,7 @@
         <v>192</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H9" s="7">
         <v>473</v>
@@ -4049,10 +4061,10 @@
         <v>206</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>160</v>
+        <v>207</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H13" s="7">
         <v>323</v>
@@ -4061,13 +4073,13 @@
         <v>327878</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M13" s="7">
         <v>651</v>
@@ -4076,13 +4088,13 @@
         <v>639506</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4097,13 +4109,13 @@
         <v>2857</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>168</v>
+        <v>217</v>
       </c>
       <c r="H14" s="7">
         <v>8</v>
@@ -4112,13 +4124,13 @@
         <v>7547</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="M14" s="7">
         <v>11</v>
@@ -4127,13 +4139,13 @@
         <v>10404</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4189,7 +4201,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4207,7 +4219,7 @@
         <v>16</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4222,7 +4234,7 @@
         <v>16</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4252,13 +4264,13 @@
         <v>358038</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>124</v>
+        <v>225</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>223</v>
+        <v>87</v>
       </c>
       <c r="H17" s="7">
         <v>332</v>
@@ -4267,13 +4279,13 @@
         <v>358580</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="M17" s="7">
         <v>674</v>
@@ -4282,13 +4294,13 @@
         <v>716618</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4303,13 +4315,13 @@
         <v>10196</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>132</v>
+        <v>233</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>230</v>
+        <v>94</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="H18" s="7">
         <v>24</v>
@@ -4318,13 +4330,13 @@
         <v>26846</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="M18" s="7">
         <v>34</v>
@@ -4333,13 +4345,13 @@
         <v>37042</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4395,7 +4407,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4413,7 +4425,7 @@
         <v>16</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4428,7 +4440,7 @@
         <v>16</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -4443,7 +4455,7 @@
         <v>16</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4458,13 +4470,13 @@
         <v>210228</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H21" s="7">
         <v>214</v>
@@ -4473,13 +4485,13 @@
         <v>208945</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="M21" s="7">
         <v>425</v>
@@ -4488,13 +4500,13 @@
         <v>419173</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>245</v>
+        <v>27</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4509,13 +4521,13 @@
         <v>993</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="H22" s="7">
         <v>9</v>
@@ -4524,13 +4536,13 @@
         <v>9642</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="M22" s="7">
         <v>10</v>
@@ -4539,13 +4551,13 @@
         <v>10635</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>253</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4601,7 +4613,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -4619,7 +4631,7 @@
         <v>16</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -4634,7 +4646,7 @@
         <v>16</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -4649,7 +4661,7 @@
         <v>16</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>255</v>
+        <v>146</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4694,13 +4706,13 @@
         <v>488585</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>105</v>
+        <v>262</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>181</v>
+        <v>264</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4715,13 +4727,13 @@
         <v>20987</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="H26" s="7">
         <v>27</v>
@@ -4730,13 +4742,13 @@
         <v>26666</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="M26" s="7">
         <v>46</v>
@@ -4745,13 +4757,13 @@
         <v>47653</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>114</v>
+        <v>271</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>189</v>
+        <v>272</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4825,7 +4837,7 @@
         <v>16</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -4855,7 +4867,7 @@
         <v>16</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4873,10 +4885,10 @@
         <v>192</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>208</v>
+        <v>276</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="H29" s="7">
         <v>620</v>
@@ -4885,13 +4897,13 @@
         <v>662592</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>222</v>
+        <v>279</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="M29" s="7">
         <v>1192</v>
@@ -4900,13 +4912,13 @@
         <v>1309962</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>277</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4924,10 +4936,10 @@
         <v>198</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>215</v>
+        <v>284</v>
       </c>
       <c r="H30" s="7">
         <v>19</v>
@@ -4936,13 +4948,13 @@
         <v>21386</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>231</v>
+        <v>287</v>
       </c>
       <c r="M30" s="7">
         <v>25</v>
@@ -4951,13 +4963,13 @@
         <v>28074</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>282</v>
+        <v>57</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5031,7 +5043,7 @@
         <v>16</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -5076,13 +5088,13 @@
         <v>766890</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="H33" s="7">
         <v>728</v>
@@ -5091,13 +5103,13 @@
         <v>793845</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>288</v>
+        <v>123</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="M33" s="7">
         <v>1466</v>
@@ -5106,13 +5118,13 @@
         <v>1560735</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>292</v>
+        <v>62</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>102</v>
+        <v>297</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -5127,13 +5139,13 @@
         <v>8633</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="H34" s="7">
         <v>25</v>
@@ -5142,13 +5154,13 @@
         <v>30235</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>296</v>
+        <v>130</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="M34" s="7">
         <v>34</v>
@@ -5157,13 +5169,13 @@
         <v>38868</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>111</v>
+        <v>304</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>300</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5282,13 +5294,13 @@
         <v>3316481</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>290</v>
+        <v>88</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="H37" s="7">
         <v>3176</v>
@@ -5297,13 +5309,13 @@
         <v>3369050</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>304</v>
+        <v>68</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>288</v>
+        <v>308</v>
       </c>
       <c r="M37" s="7">
         <v>6333</v>
@@ -5312,13 +5324,13 @@
         <v>6685532</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>306</v>
+        <v>156</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -5333,13 +5345,13 @@
         <v>62445</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>297</v>
+        <v>96</v>
       </c>
       <c r="H38" s="7">
         <v>142</v>
@@ -5348,13 +5360,13 @@
         <v>153155</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>296</v>
+        <v>314</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>311</v>
+        <v>78</v>
       </c>
       <c r="M38" s="7">
         <v>201</v>
@@ -5363,13 +5375,13 @@
         <v>215599</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>314</v>
+        <v>163</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -5425,7 +5437,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -5449,7 +5461,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D012AA93-6751-4B3B-9684-2A4024F5228B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{004F4624-8B5A-42F5-9CBF-9334EC620052}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5466,7 +5478,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5573,10 +5585,10 @@
         <v>260298</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>38</v>
@@ -5588,10 +5600,10 @@
         <v>271403</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>38</v>
@@ -5603,10 +5615,10 @@
         <v>531700</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>38</v>
@@ -5645,7 +5657,7 @@
         <v>16</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -5660,7 +5672,7 @@
         <v>16</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5696,7 +5708,7 @@
         <v>16</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -5711,7 +5723,7 @@
         <v>16</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5779,10 +5791,10 @@
         <v>519297</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>38</v>
@@ -5794,10 +5806,10 @@
         <v>554566</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>38</v>
@@ -5809,10 +5821,10 @@
         <v>1073864</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>38</v>
@@ -5836,7 +5848,7 @@
         <v>16</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -5866,7 +5878,7 @@
         <v>16</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5887,7 +5899,7 @@
         <v>16</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -5917,7 +5929,7 @@
         <v>16</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5985,10 +5997,10 @@
         <v>322240</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>38</v>
@@ -6000,10 +6012,10 @@
         <v>373284</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>38</v>
@@ -6015,7 +6027,7 @@
         <v>695524</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>195</v>
@@ -6042,7 +6054,7 @@
         <v>16</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -6057,7 +6069,7 @@
         <v>16</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -6093,7 +6105,7 @@
         <v>16</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -6108,7 +6120,7 @@
         <v>16</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -6179,7 +6191,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6191,10 +6203,10 @@
         <v>322240</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>38</v>
@@ -6206,10 +6218,10 @@
         <v>428556</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>38</v>
@@ -6221,10 +6233,10 @@
         <v>750796</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>38</v>
@@ -6248,7 +6260,7 @@
         <v>16</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -6263,7 +6275,7 @@
         <v>16</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -6278,7 +6290,7 @@
         <v>16</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6299,7 +6311,7 @@
         <v>16</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -6314,7 +6326,7 @@
         <v>16</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -6329,7 +6341,7 @@
         <v>16</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6385,7 +6397,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -6397,10 +6409,10 @@
         <v>196748</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>38</v>
@@ -6412,10 +6424,10 @@
         <v>259513</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>138</v>
+        <v>334</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>38</v>
@@ -6427,10 +6439,10 @@
         <v>456260</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>38</v>
@@ -6454,7 +6466,7 @@
         <v>16</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -6469,7 +6481,7 @@
         <v>16</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>146</v>
+        <v>336</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -6505,7 +6517,7 @@
         <v>16</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -6520,7 +6532,7 @@
         <v>16</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>146</v>
+        <v>336</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -6591,7 +6603,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -6603,7 +6615,7 @@
         <v>277223</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>196</v>
@@ -6618,10 +6630,10 @@
         <v>275622</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>38</v>
@@ -6633,10 +6645,10 @@
         <v>552845</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>38</v>
@@ -6675,7 +6687,7 @@
         <v>16</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -6690,7 +6702,7 @@
         <v>16</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6726,7 +6738,7 @@
         <v>16</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -6741,7 +6753,7 @@
         <v>16</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6809,10 +6821,10 @@
         <v>627754</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>38</v>
@@ -6824,7 +6836,7 @@
         <v>804203</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>191</v>
@@ -6839,10 +6851,10 @@
         <v>1431957</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>38</v>
@@ -6866,7 +6878,7 @@
         <v>16</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -6896,7 +6908,7 @@
         <v>16</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6917,7 +6929,7 @@
         <v>16</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -6947,7 +6959,7 @@
         <v>16</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7015,10 +7027,10 @@
         <v>859428</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>38</v>
@@ -7030,10 +7042,10 @@
         <v>868434</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>38</v>
@@ -7045,10 +7057,10 @@
         <v>1727862</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>38</v>
@@ -7087,7 +7099,7 @@
         <v>16</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="M33" s="7">
         <v>0</v>
@@ -7102,7 +7114,7 @@
         <v>16</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -7138,7 +7150,7 @@
         <v>16</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -7153,7 +7165,7 @@
         <v>16</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7221,10 +7233,10 @@
         <v>3385228</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>38</v>
@@ -7236,10 +7248,10 @@
         <v>3835581</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="L36" s="7" t="s">
         <v>38</v>
@@ -7251,10 +7263,10 @@
         <v>7220808</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="Q36" s="7" t="s">
         <v>38</v>
@@ -7293,7 +7305,7 @@
         <v>16</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -7308,7 +7320,7 @@
         <v>16</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7344,7 +7356,7 @@
         <v>16</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="M38" s="7">
         <v>0</v>
@@ -7359,7 +7371,7 @@
         <v>16</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7415,7 +7427,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P02F-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P02F-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{745F0479-84EF-4C66-AC87-F77180FAC7F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2DD7BBDF-145D-417C-844D-86CF00F5AB66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C8F12520-4C9C-4E0A-A4DF-0D54E527AEBA}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{9F1FC891-89D5-45A4-8DE8-4B5A71F3EB23}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="300">
   <si>
     <t>Población que se encarga del cuidado de alguna persona fuera del hogar sin percibir remuneración por ello en 2012 (Tasa respuesta: 99,63%)</t>
   </si>
@@ -72,12 +72,66 @@
     <t>No</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>Cadiz</t>
   </si>
   <si>
@@ -135,9 +189,6 @@
     <t>4,47%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
     <t>Cordoba</t>
   </si>
   <si>
@@ -192,648 +243,651 @@
     <t>Granada</t>
   </si>
   <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que se encarga del cuidado de alguna persona fuera del hogar sin percibir remuneración por ello en 2016 (Tasa respuesta: 99,47%)</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>87,21%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
     <t>98,07%</t>
   </si>
   <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
   </si>
   <si>
     <t>1,93%</t>
   </si>
   <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que se encarga del cuidado de alguna persona fuera del hogar sin percibir remuneración por ello en 2016 (Tasa respuesta: 99,47%)</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>87,21%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
     <t>3,67%</t>
   </si>
   <si>
@@ -847,9 +901,6 @@
   </si>
   <si>
     <t>1,69%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
   </si>
   <si>
     <t>98,56%</t>
@@ -1297,7 +1348,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0292E4AF-22F3-4E80-96D6-88D2DA3265E8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99592BB6-04B9-4500-A05B-D3E3EC45E081}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1415,88 +1466,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>273</v>
+      </c>
+      <c r="D4" s="7">
+        <v>286078</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>237</v>
+      </c>
+      <c r="I4" s="7">
+        <v>266255</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>510</v>
+      </c>
+      <c r="N4" s="7">
+        <v>552333</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="D5" s="7">
+        <v>7615</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>19</v>
+      </c>
+      <c r="I5" s="7">
+        <v>20990</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>27</v>
+      </c>
+      <c r="N5" s="7">
+        <v>28605</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1505,48 +1568,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>281</v>
+      </c>
+      <c r="D6" s="7">
+        <v>293693</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>256</v>
+      </c>
+      <c r="I6" s="7">
+        <v>287245</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>537</v>
+      </c>
+      <c r="N6" s="7">
+        <v>580938</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1558,13 +1627,13 @@
         <v>493543</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>458</v>
@@ -1573,13 +1642,13 @@
         <v>499710</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>918</v>
@@ -1588,19 +1657,19 @@
         <v>993254</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>10</v>
@@ -1609,13 +1678,13 @@
         <v>9996</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>21</v>
@@ -1624,13 +1693,13 @@
         <v>22977</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>31</v>
@@ -1639,13 +1708,13 @@
         <v>32972</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1660,13 +1729,13 @@
         <v>503539</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>479</v>
@@ -1675,13 +1744,13 @@
         <v>522687</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>949</v>
@@ -1690,18 +1759,18 @@
         <v>1026226</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1713,13 +1782,13 @@
         <v>320063</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>308</v>
@@ -1728,13 +1797,13 @@
         <v>331827</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>623</v>
@@ -1743,19 +1812,19 @@
         <v>651890</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>3</v>
@@ -1764,13 +1833,13 @@
         <v>3053</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="H11" s="7">
         <v>6</v>
@@ -1779,13 +1848,13 @@
         <v>6091</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="M11" s="7">
         <v>9</v>
@@ -1794,13 +1863,13 @@
         <v>9144</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1815,13 +1884,13 @@
         <v>323116</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>314</v>
@@ -1830,13 +1899,13 @@
         <v>337918</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>632</v>
@@ -1845,117 +1914,117 @@
         <v>661034</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>611</v>
+        <v>338</v>
       </c>
       <c r="D13" s="7">
-        <v>652632</v>
+        <v>366553</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="H13" s="7">
-        <v>593</v>
+        <v>356</v>
       </c>
       <c r="I13" s="7">
-        <v>639177</v>
+        <v>372922</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="M13" s="7">
-        <v>1204</v>
+        <v>694</v>
       </c>
       <c r="N13" s="7">
-        <v>1291809</v>
+        <v>739475</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D14" s="7">
-        <v>12828</v>
+        <v>5213</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="H14" s="7">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="I14" s="7">
-        <v>37019</v>
+        <v>16029</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="M14" s="7">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="N14" s="7">
-        <v>49847</v>
+        <v>21242</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1964,54 +2033,54 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>623</v>
+        <v>342</v>
       </c>
       <c r="D15" s="7">
-        <v>665460</v>
+        <v>371766</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>627</v>
+        <v>371</v>
       </c>
       <c r="I15" s="7">
-        <v>676196</v>
+        <v>388951</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1250</v>
+        <v>713</v>
       </c>
       <c r="N15" s="7">
-        <v>1341656</v>
+        <v>760717</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2023,13 +2092,13 @@
         <v>209455</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="H16" s="7">
         <v>205</v>
@@ -2038,13 +2107,13 @@
         <v>212495</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="M16" s="7">
         <v>398</v>
@@ -2053,19 +2122,19 @@
         <v>421950</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>3</v>
@@ -2074,13 +2143,13 @@
         <v>3163</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="H17" s="7">
         <v>7</v>
@@ -2089,13 +2158,13 @@
         <v>7096</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="M17" s="7">
         <v>10</v>
@@ -2104,13 +2173,13 @@
         <v>10259</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2125,13 +2194,13 @@
         <v>212618</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
         <v>212</v>
@@ -2140,13 +2209,13 @@
         <v>219591</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
         <v>408</v>
@@ -2155,18 +2224,18 @@
         <v>432209</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2178,13 +2247,13 @@
         <v>272129</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="H19" s="7">
         <v>254</v>
@@ -2193,13 +2262,13 @@
         <v>264621</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="M19" s="7">
         <v>513</v>
@@ -2208,19 +2277,19 @@
         <v>536751</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
         <v>1</v>
@@ -2229,13 +2298,13 @@
         <v>943</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="H20" s="7">
         <v>15</v>
@@ -2244,13 +2313,13 @@
         <v>15410</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="M20" s="7">
         <v>16</v>
@@ -2259,13 +2328,13 @@
         <v>16352</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>104</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2280,13 +2349,13 @@
         <v>273072</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H21" s="7">
         <v>269</v>
@@ -2295,13 +2364,13 @@
         <v>280031</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M21" s="7">
         <v>529</v>
@@ -2310,18 +2379,18 @@
         <v>553103</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2333,13 +2402,13 @@
         <v>653249</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="H22" s="7">
         <v>619</v>
@@ -2348,13 +2417,13 @@
         <v>676046</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="M22" s="7">
         <v>1229</v>
@@ -2363,19 +2432,19 @@
         <v>1329295</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
         <v>7</v>
@@ -2384,13 +2453,13 @@
         <v>8800</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="H23" s="7">
         <v>15</v>
@@ -2399,13 +2468,13 @@
         <v>15714</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="M23" s="7">
         <v>22</v>
@@ -2414,13 +2483,13 @@
         <v>24514</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2435,13 +2504,13 @@
         <v>662049</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H24" s="7">
         <v>634</v>
@@ -2450,13 +2519,13 @@
         <v>691760</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M24" s="7">
         <v>1251</v>
@@ -2465,18 +2534,18 @@
         <v>1353809</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2488,13 +2557,13 @@
         <v>765790</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="H25" s="7">
         <v>734</v>
@@ -2503,13 +2572,13 @@
         <v>796863</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="M25" s="7">
         <v>1438</v>
@@ -2518,19 +2587,19 @@
         <v>1562653</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C26" s="7">
         <v>7</v>
@@ -2539,13 +2608,13 @@
         <v>7075</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="H26" s="7">
         <v>19</v>
@@ -2554,13 +2623,13 @@
         <v>20915</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="M26" s="7">
         <v>26</v>
@@ -2569,13 +2638,13 @@
         <v>27990</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2590,13 +2659,13 @@
         <v>772865</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H27" s="7">
         <v>753</v>
@@ -2605,13 +2674,13 @@
         <v>817778</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M27" s="7">
         <v>1464</v>
@@ -2620,13 +2689,13 @@
         <v>1590643</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2643,13 +2712,13 @@
         <v>3366862</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>53</v>
+        <v>153</v>
       </c>
       <c r="H28" s="7">
         <v>3171</v>
@@ -2658,13 +2727,13 @@
         <v>3420740</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="M28" s="7">
         <v>6323</v>
@@ -2673,19 +2742,19 @@
         <v>6787602</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
         <v>43</v>
@@ -2694,13 +2763,13 @@
         <v>45857</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>61</v>
+        <v>159</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="H29" s="7">
         <v>117</v>
@@ -2709,13 +2778,13 @@
         <v>125222</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="M29" s="7">
         <v>160</v>
@@ -2724,13 +2793,13 @@
         <v>171079</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2745,13 +2814,13 @@
         <v>3412719</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H30" s="7">
         <v>3288</v>
@@ -2760,13 +2829,13 @@
         <v>3545962</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M30" s="7">
         <v>6483</v>
@@ -2775,18 +2844,18 @@
         <v>6958681</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -2810,7 +2879,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F46B4F23-E552-4F9E-89A2-137A54A4B775}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B630BFAE-7A3A-4B4A-9AD0-F4BE9B5C7833}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2827,7 +2896,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2934,13 +3003,13 @@
         <v>281705</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="H4" s="7">
         <v>250</v>
@@ -2949,13 +3018,13 @@
         <v>260680</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="M4" s="7">
         <v>505</v>
@@ -2964,19 +3033,19 @@
         <v>542385</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>10</v>
@@ -2985,13 +3054,13 @@
         <v>11073</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="H5" s="7">
         <v>26</v>
@@ -3000,13 +3069,13 @@
         <v>26552</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="M5" s="7">
         <v>36</v>
@@ -3015,13 +3084,13 @@
         <v>37625</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3036,13 +3105,13 @@
         <v>292778</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>276</v>
@@ -3051,13 +3120,13 @@
         <v>287232</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
         <v>541</v>
@@ -3066,18 +3135,18 @@
         <v>580010</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -3089,13 +3158,13 @@
         <v>498487</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="H7" s="7">
         <v>473</v>
@@ -3104,13 +3173,13 @@
         <v>510082</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="M7" s="7">
         <v>944</v>
@@ -3119,19 +3188,19 @@
         <v>1008569</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>1</v>
@@ -3140,13 +3209,13 @@
         <v>1016</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="H8" s="7">
         <v>4</v>
@@ -3155,13 +3224,13 @@
         <v>4281</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="M8" s="7">
         <v>5</v>
@@ -3170,13 +3239,13 @@
         <v>5297</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3191,13 +3260,13 @@
         <v>499503</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>477</v>
@@ -3206,13 +3275,13 @@
         <v>514363</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>949</v>
@@ -3221,18 +3290,18 @@
         <v>1013866</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3244,13 +3313,13 @@
         <v>311628</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="H10" s="7">
         <v>323</v>
@@ -3259,34 +3328,34 @@
         <v>327878</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="M10" s="7">
         <v>651</v>
       </c>
       <c r="N10" s="7">
-        <v>639505</v>
+        <v>639506</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>3</v>
@@ -3295,13 +3364,13 @@
         <v>2857</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="H11" s="7">
         <v>8</v>
@@ -3310,13 +3379,13 @@
         <v>7547</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="M11" s="7">
         <v>11</v>
@@ -3325,13 +3394,13 @@
         <v>10404</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3346,13 +3415,13 @@
         <v>314485</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>331</v>
@@ -3361,33 +3430,33 @@
         <v>335425</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>662</v>
       </c>
       <c r="N12" s="7">
-        <v>649909</v>
+        <v>649910</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3399,13 +3468,13 @@
         <v>358038</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="H13" s="7">
         <v>332</v>
@@ -3414,13 +3483,13 @@
         <v>358580</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="M13" s="7">
         <v>674</v>
@@ -3429,19 +3498,19 @@
         <v>716618</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>58</v>
+        <v>218</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>10</v>
@@ -3450,13 +3519,13 @@
         <v>10196</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="H14" s="7">
         <v>24</v>
@@ -3465,13 +3534,13 @@
         <v>26846</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="M14" s="7">
         <v>34</v>
@@ -3480,13 +3549,13 @@
         <v>37042</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>68</v>
+        <v>227</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3501,13 +3570,13 @@
         <v>368234</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>356</v>
@@ -3516,13 +3585,13 @@
         <v>385426</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>708</v>
@@ -3531,18 +3600,18 @@
         <v>753660</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3554,13 +3623,13 @@
         <v>210228</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="H16" s="7">
         <v>214</v>
@@ -3569,13 +3638,13 @@
         <v>208945</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="M16" s="7">
         <v>425</v>
@@ -3584,19 +3653,19 @@
         <v>419173</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>1</v>
@@ -3605,13 +3674,13 @@
         <v>993</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="H17" s="7">
         <v>9</v>
@@ -3620,13 +3689,13 @@
         <v>9642</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="M17" s="7">
         <v>10</v>
@@ -3635,13 +3704,13 @@
         <v>10635</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3656,13 +3725,13 @@
         <v>211221</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
         <v>223</v>
@@ -3671,13 +3740,13 @@
         <v>218587</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
         <v>435</v>
@@ -3686,18 +3755,18 @@
         <v>429808</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3709,13 +3778,13 @@
         <v>242136</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="H19" s="7">
         <v>236</v>
@@ -3724,13 +3793,13 @@
         <v>246449</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="M19" s="7">
         <v>476</v>
@@ -3739,19 +3808,19 @@
         <v>488585</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
         <v>19</v>
@@ -3760,13 +3829,13 @@
         <v>20987</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="H20" s="7">
         <v>27</v>
@@ -3775,13 +3844,13 @@
         <v>26666</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="M20" s="7">
         <v>46</v>
@@ -3790,13 +3859,13 @@
         <v>47653</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3811,13 +3880,13 @@
         <v>263123</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H21" s="7">
         <v>263</v>
@@ -3826,13 +3895,13 @@
         <v>273115</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M21" s="7">
         <v>522</v>
@@ -3841,18 +3910,18 @@
         <v>536238</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3864,13 +3933,13 @@
         <v>647371</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="H22" s="7">
         <v>620</v>
@@ -3879,13 +3948,13 @@
         <v>662592</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="M22" s="7">
         <v>1192</v>
@@ -3894,19 +3963,19 @@
         <v>1309962</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
         <v>6</v>
@@ -3915,13 +3984,13 @@
         <v>6688</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="H23" s="7">
         <v>19</v>
@@ -3930,13 +3999,13 @@
         <v>21386</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="M23" s="7">
         <v>25</v>
@@ -3945,13 +4014,13 @@
         <v>28074</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3966,13 +4035,13 @@
         <v>654059</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H24" s="7">
         <v>639</v>
@@ -3981,13 +4050,13 @@
         <v>683978</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M24" s="7">
         <v>1217</v>
@@ -3996,18 +4065,18 @@
         <v>1338036</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4019,13 +4088,13 @@
         <v>766890</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>51</v>
+        <v>275</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="H25" s="7">
         <v>728</v>
@@ -4034,13 +4103,13 @@
         <v>793845</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="M25" s="7">
         <v>1466</v>
@@ -4049,19 +4118,19 @@
         <v>1560735</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>261</v>
+        <v>279</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>262</v>
+        <v>19</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C26" s="7">
         <v>9</v>
@@ -4070,13 +4139,13 @@
         <v>8633</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>60</v>
+        <v>282</v>
       </c>
       <c r="H26" s="7">
         <v>25</v>
@@ -4085,13 +4154,13 @@
         <v>30235</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>265</v>
+        <v>283</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>266</v>
+        <v>284</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>267</v>
+        <v>285</v>
       </c>
       <c r="M26" s="7">
         <v>34</v>
@@ -4100,13 +4169,13 @@
         <v>38868</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>269</v>
+        <v>287</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>270</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4121,13 +4190,13 @@
         <v>775523</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H27" s="7">
         <v>753</v>
@@ -4136,13 +4205,13 @@
         <v>824080</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M27" s="7">
         <v>1500</v>
@@ -4151,13 +4220,13 @@
         <v>1599603</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4174,13 +4243,13 @@
         <v>3316481</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="H28" s="7">
         <v>3176</v>
@@ -4189,13 +4258,13 @@
         <v>3369050</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="M28" s="7">
         <v>6333</v>
@@ -4204,19 +4273,19 @@
         <v>6685532</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>276</v>
+        <v>293</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
         <v>59</v>
@@ -4225,13 +4294,13 @@
         <v>62445</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>266</v>
+        <v>284</v>
       </c>
       <c r="H29" s="7">
         <v>142</v>
@@ -4240,13 +4309,13 @@
         <v>153155</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>265</v>
+        <v>283</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>279</v>
+        <v>296</v>
       </c>
       <c r="M29" s="7">
         <v>201</v>
@@ -4255,13 +4324,13 @@
         <v>215599</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>281</v>
+        <v>298</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>282</v>
+        <v>299</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4276,13 +4345,13 @@
         <v>3378926</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H30" s="7">
         <v>3318</v>
@@ -4291,13 +4360,13 @@
         <v>3522205</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M30" s="7">
         <v>6534</v>
@@ -4306,18 +4375,18 @@
         <v>6901131</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
